--- a/document/杨林波-源代码-理财精灵开发进度表.xlsx
+++ b/document/杨林波-源代码-理财精灵开发进度表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
   <si>
     <t>产品</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,35 +209,47 @@
     <t>未进行</t>
   </si>
   <si>
+    <t>周发明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>未进行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>周发明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨涛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
+    <t>未进行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -294,12 +306,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -338,6 +344,74 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -354,10 +428,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="323232"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="EBF1FA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -392,7 +466,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -424,10 +498,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -459,7 +532,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -635,32 +707,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="7" width="15.75" customWidth="1"/>
     <col min="8" max="8" width="29.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="15" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="15" customHeight="1">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -675,40 +747,40 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="A3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="15" customHeight="1">
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G4" s="4">
         <v>43028</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H4" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1">
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G5" s="4">
         <v>43028</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H5" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1">
       <c r="B6" t="s">
         <v>30</v>
       </c>
@@ -719,10 +791,10 @@
         <v>43028</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1">
       <c r="B7" t="s">
         <v>31</v>
       </c>
@@ -736,10 +808,10 @@
         <v>43029</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1">
       <c r="B8" t="s">
         <v>32</v>
       </c>
@@ -750,10 +822,10 @@
         <v>43029</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1">
       <c r="B9" t="s">
         <v>33</v>
       </c>
@@ -764,10 +836,10 @@
         <v>43030</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1">
       <c r="B10" t="s">
         <v>34</v>
       </c>
@@ -781,7 +853,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="15" customHeight="1">
       <c r="B11" t="s">
         <v>36</v>
       </c>
@@ -792,10 +864,10 @@
         <v>43028</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1">
       <c r="B12" t="s">
         <v>35</v>
       </c>
@@ -806,20 +878,20 @@
         <v>43029</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1">
       <c r="A13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" ht="15" customHeight="1">
       <c r="B14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" ht="15" customHeight="1">
       <c r="C15" t="s">
         <v>7</v>
       </c>
@@ -830,10 +902,10 @@
         <v>43027</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1">
       <c r="C16" t="s">
         <v>8</v>
       </c>
@@ -844,10 +916,10 @@
         <v>43027</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1">
       <c r="C17" t="s">
         <v>9</v>
       </c>
@@ -858,10 +930,10 @@
         <v>43028</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1">
       <c r="C18" t="s">
         <v>10</v>
       </c>
@@ -872,15 +944,15 @@
         <v>43027</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1">
       <c r="B19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="15" customHeight="1">
       <c r="C20" t="s">
         <v>13</v>
       </c>
@@ -890,11 +962,11 @@
       <c r="G20" s="4">
         <v>43029</v>
       </c>
-      <c r="H20" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H20" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1">
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -904,11 +976,11 @@
       <c r="G21" s="4">
         <v>43029</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="15" customHeight="1">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -918,16 +990,16 @@
       <c r="G22" s="4">
         <v>43030</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="15" customHeight="1">
       <c r="B23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" ht="15" customHeight="1">
       <c r="C24" t="s">
         <v>17</v>
       </c>
@@ -938,10 +1010,10 @@
         <v>43028</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1">
       <c r="C25" t="s">
         <v>18</v>
       </c>
@@ -952,10 +1024,10 @@
         <v>43028</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1">
       <c r="C26" t="s">
         <v>19</v>
       </c>
@@ -969,12 +1041,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" ht="15" customHeight="1">
       <c r="B27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" ht="15" customHeight="1">
       <c r="C28" t="s">
         <v>27</v>
       </c>
@@ -984,11 +1056,11 @@
       <c r="G28" s="4">
         <v>43029</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="15" customHeight="1">
       <c r="C29" t="s">
         <v>28</v>
       </c>
@@ -998,11 +1070,11 @@
       <c r="G29" s="4">
         <v>43029</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" ht="15" customHeight="1">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -1018,12 +1090,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1031,12 +1103,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/杨林波-源代码-理财精灵开发进度表.xlsx
+++ b/document/杨林波-源代码-理财精灵开发进度表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
   <si>
     <t>产品</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -217,10 +217,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进行中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -248,8 +244,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,12 +270,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -294,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -309,6 +317,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -344,74 +362,6 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -424,14 +374,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="323232"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="EBF1FA"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -498,6 +448,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -532,6 +483,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -707,20 +659,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I32" sqref="I23:I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="15.75" customWidth="1"/>
-    <col min="8" max="8" width="29.875" customWidth="1"/>
+    <col min="1" max="4" width="15.77734375" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="6" max="7" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="29.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -732,7 +686,7 @@
       <c r="E1" s="6"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -747,12 +701,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -763,24 +717,30 @@
         <v>43028</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1">
-      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F5" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="8">
         <v>43028</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1">
+      <c r="H5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>30</v>
       </c>
@@ -791,10 +751,10 @@
         <v>43028</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>31</v>
       </c>
@@ -808,10 +768,10 @@
         <v>43029</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>32</v>
       </c>
@@ -822,24 +782,30 @@
         <v>43029</v>
       </c>
       <c r="H8" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="8">
+        <v>43030</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1">
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="4">
-        <v>43030</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1">
+      <c r="I9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>34</v>
       </c>
@@ -850,10 +816,10 @@
         <v>43027</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>36</v>
       </c>
@@ -864,10 +830,10 @@
         <v>43028</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>35</v>
       </c>
@@ -878,203 +844,251 @@
         <v>43029</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1">
-      <c r="C15" t="s">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F15" t="s">
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="11">
         <v>43027</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1">
-      <c r="C16" t="s">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F16" t="s">
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="11">
         <v>43027</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1">
-      <c r="C17" t="s">
+      <c r="H16" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F17" t="s">
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="11">
         <v>43028</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1">
-      <c r="C18" t="s">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F18" t="s">
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="11">
         <v>43027</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1">
+      <c r="H18" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1">
-      <c r="C20" t="s">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F20" t="s">
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="8">
         <v>43029</v>
       </c>
-      <c r="H20" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1">
-      <c r="C21" t="s">
+      <c r="H20" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F21" t="s">
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="8">
         <v>43029</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1">
-      <c r="C22" t="s">
+      <c r="I21">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F22" t="s">
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="8">
         <v>43030</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1">
+      <c r="I22">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1">
-      <c r="C24" t="s">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F24" t="s">
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="11">
         <v>43028</v>
       </c>
-      <c r="H24" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1">
-      <c r="C25" t="s">
+      <c r="H24" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F25" t="s">
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="11">
         <v>43028</v>
       </c>
-      <c r="H25" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1">
-      <c r="C26" t="s">
+      <c r="H25" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F26" t="s">
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="8">
         <v>43028</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1">
+      <c r="I26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1">
-      <c r="C28" t="s">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F28" t="s">
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="8">
         <v>43029</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1">
-      <c r="C29" t="s">
+      <c r="I28">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F29" t="s">
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="8">
         <v>43029</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1">
+      <c r="I29">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -1090,12 +1104,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1103,12 +1117,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/杨林波-源代码-理财精灵开发进度表.xlsx
+++ b/document/杨林波-源代码-理财精灵开发进度表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
   <si>
     <t>产品</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,14 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>修改用户状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改用户角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查看用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,31 +63,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新产品发布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下架产品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改产品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>角色管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改角色权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看角色权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息统计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -237,15 +205,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未进行</t>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新投资项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除投资项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新投资项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看所有角色信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改角色信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,9 +319,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -327,6 +328,9 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -362,6 +366,74 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -374,14 +446,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="323232"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="EBF1FA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -448,7 +520,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -483,7 +554,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -659,438 +729,434 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I32" sqref="I23:I32"/>
+    <sheetView tabSelected="1" topLeftCell="F2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="15.77734375" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1"/>
-    <col min="6" max="7" width="15.77734375" customWidth="1"/>
-    <col min="8" max="8" width="29.88671875" customWidth="1"/>
+    <col min="1" max="4" width="15.75" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="7" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="29.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" customHeight="1">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1">
       <c r="A3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1">
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G4" s="4">
         <v>43028</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1">
+      <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="8">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="7">
         <v>43028</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>48</v>
+      <c r="H5" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="I5">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1">
       <c r="B6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G6" s="4">
         <v>43028</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1">
       <c r="B7" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G7" s="4">
         <v>43029</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1">
       <c r="B8" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G8" s="4">
         <v>43029</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1">
+      <c r="B9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="7">
         <v>43030</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>47</v>
+      <c r="H9" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="I9">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" customHeight="1">
       <c r="B10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G10" s="4">
         <v>43027</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1">
       <c r="B11" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G11" s="4">
         <v>43028</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1">
       <c r="B12" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G12" s="4">
         <v>43029</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1">
       <c r="A13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="B14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1">
+      <c r="C15" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="11">
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="10">
         <v>43027</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1">
+      <c r="C16" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="10">
+        <v>43027</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1">
+      <c r="C17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="10">
+        <v>43027</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1">
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1">
+      <c r="C19" s="6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="11">
-        <v>43027</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="11">
-        <v>43028</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="11">
-        <v>43027</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="8">
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="7">
         <v>43029</v>
       </c>
-      <c r="H20" s="9" t="s">
-        <v>49</v>
+      <c r="H19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1">
+      <c r="C20" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="7">
+        <v>43029</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="I20">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="7" t="s">
+    <row r="21" spans="1:9" ht="15" customHeight="1">
+      <c r="C21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="8">
-        <v>43029</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>41</v>
+      <c r="G21" s="7">
+        <v>43030</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="I21">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="7" t="s">
+    <row r="22" spans="1:9" ht="15" customHeight="1">
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1">
+      <c r="C23" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="8">
-        <v>43030</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I22">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10" t="s">
+      <c r="G23" s="10">
+        <v>43028</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I23">
         <v>23</v>
       </c>
-      <c r="G24" s="11">
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1">
+      <c r="C24" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="10">
         <v>43028</v>
       </c>
-      <c r="H24" s="12" t="s">
-        <v>47</v>
+      <c r="H24" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="I24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" s="11">
+    <row r="25" spans="1:9" ht="15" customHeight="1">
+      <c r="C25" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1">
+      <c r="C26" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="7">
         <v>43028</v>
       </c>
-      <c r="H25" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="8">
-        <v>43028</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>41</v>
+      <c r="H26" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="I26">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15" customHeight="1">
       <c r="B27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1">
+      <c r="C28" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="7">
         <v>43029</v>
       </c>
-      <c r="H28" s="9" t="s">
-        <v>41</v>
+      <c r="H28" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="I28">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" s="8">
+    <row r="29" spans="1:9" ht="15" customHeight="1">
+      <c r="C29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="7">
         <v>43029</v>
       </c>
-      <c r="H29" s="9" t="s">
-        <v>41</v>
+      <c r="H29" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="I29">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15" customHeight="1">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1104,12 +1170,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1117,12 +1183,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/杨林波-源代码-理财精灵开发进度表.xlsx
+++ b/document/杨林波-源代码-理财精灵开发进度表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="39">
   <si>
     <t>产品</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,14 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>修改用户状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改用户角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查看用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,31 +63,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新产品发布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下架产品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改产品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>角色管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改角色权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看角色权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息统计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -158,10 +126,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>周发明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>充值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -186,10 +150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>信息统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>杨林波</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -198,58 +158,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张钦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张钦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未进行</t>
-  </si>
-  <si>
-    <t>周发明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>杨涛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进行中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未进行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未进行</t>
+    <t>更新用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新投资项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除投资项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新投资项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看所有角色信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改角色信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,15 +227,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -290,25 +249,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -344,74 +319,6 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -424,14 +331,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="323232"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="EBF1FA"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -466,7 +373,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -498,9 +405,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -532,6 +457,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -707,376 +650,538 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="7" width="15.75" customWidth="1"/>
+    <col min="1" max="4" width="15.75" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="7" width="15.75" customWidth="1"/>
     <col min="8" max="8" width="29.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="3" t="s">
-        <v>20</v>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1">
-      <c r="B4" t="s">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="4">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="5">
         <v>43028</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1">
-      <c r="B5" t="s">
+      <c r="H4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="4">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="5">
         <v>43028</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1">
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="H5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="5">
+        <v>43028</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="5">
+        <v>43029</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="5">
+        <v>43029</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="5">
+        <v>43030</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="5">
+        <v>43027</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="5">
+        <v>43028</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="5">
+        <v>43029</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="5">
+        <v>43027</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="5">
+        <v>43027</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="5">
+        <v>43027</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="5">
+        <v>43029</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="5">
+        <v>43029</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="5">
+        <v>43030</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="5">
+        <v>43028</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="5">
+        <v>43028</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="4">
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="5">
         <v>43028</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1">
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="H26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="5">
         <v>43029</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1">
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="4">
+      <c r="H28" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="5">
         <v>43029</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1">
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="4">
-        <v>43030</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1">
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="4">
-        <v>43027</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1">
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="4">
-        <v>43028</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1">
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="4">
-        <v>43029</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1">
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1">
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="4">
-        <v>43027</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1">
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="4">
-        <v>43027</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1">
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="4">
-        <v>43028</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1">
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="4">
-        <v>43027</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1">
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1">
-      <c r="C20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="4">
-        <v>43029</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1">
-      <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="4">
-        <v>43029</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1">
-      <c r="C22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="4">
-        <v>43030</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1">
-      <c r="B23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1">
-      <c r="C24" t="s">
+      <c r="H29" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
         <v>17</v>
-      </c>
-      <c r="F24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="4">
-        <v>43028</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1">
-      <c r="C25" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" s="4">
-        <v>43028</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1">
-      <c r="C26" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="4">
-        <v>43028</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1">
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1">
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" s="4">
-        <v>43029</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1">
-      <c r="C29" t="s">
-        <v>28</v>
-      </c>
-      <c r="F29" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" s="4">
-        <v>43029</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1">
-      <c r="A30" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1090,12 +1195,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1103,12 +1208,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
